--- a/files/Data_Map_2014_2019.xlsx
+++ b/files/Data_Map_2014_2019.xlsx
@@ -1,33 +1,52 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
+  <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\szekely_balazs\Dropbox\Elena_R\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Elena/Documents/GitHub/PopulistParty/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5B8CC3D-57AF-CE40-BBBC-3763C59B667F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="3"/>
+    <workbookView xWindow="11060" yWindow="0" windowWidth="17740" windowHeight="18000" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Munka1" sheetId="1" r:id="rId1"/>
     <sheet name="2014" sheetId="2" r:id="rId2"/>
     <sheet name="2019" sheetId="3" r:id="rId3"/>
-    <sheet name="Both" sheetId="5" r:id="rId4"/>
+    <sheet name="Foglio4" sheetId="9" r:id="rId4"/>
+    <sheet name="Both" sheetId="5" r:id="rId5"/>
+    <sheet name="2019 factor" sheetId="10" r:id="rId6"/>
+    <sheet name="Scale" sheetId="6" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'2019 factor'!$A$1:$M$26</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
+  <pivotCaches>
+    <pivotCache cacheId="0" r:id="rId8"/>
+  </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="851" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1425" uniqueCount="406">
   <si>
     <t>country</t>
   </si>
@@ -525,13 +544,736 @@
   </si>
   <si>
     <t>Identifiers</t>
+  </si>
+  <si>
+    <t>0 = Not important at all, 10 = Extremely important</t>
+  </si>
+  <si>
+    <t>0 = Strongly supports issue on the left, 10 = Strongly supports issue on the right</t>
+  </si>
+  <si>
+    <t>0 = Strongly opposes, 10 = Strongly supports</t>
+  </si>
+  <si>
+    <t>0 = Strongly supports, 10 = Strongly opposes</t>
+  </si>
+  <si>
+    <t>0 = Strongly opposes, 7 = Strongly supports</t>
+  </si>
+  <si>
+    <t>0 = Strongly united on the topic, 10 = Strongly divided</t>
+  </si>
+  <si>
+    <t>0 = no importance, 10 = great importance</t>
+  </si>
+  <si>
+    <t>0 = libertarian/postmaterialist, 10 = traditional/authoritarian</t>
+  </si>
+  <si>
+    <t>0 = no importance, 10 =great importance</t>
+  </si>
+  <si>
+    <t>0 = extreme left, 10 = extreme right</t>
+  </si>
+  <si>
+    <t>Etichette di colonna</t>
+  </si>
+  <si>
+    <t>Totale complessivo</t>
+  </si>
+  <si>
+    <t>Etichette di riga</t>
+  </si>
+  <si>
+    <t>(1) 0 = extreme left, 10 = extreme right</t>
+  </si>
+  <si>
+    <t>(2) 0 = libertarian/postmaterialist, 10 = traditional/authoritarian</t>
+  </si>
+  <si>
+    <t>(3) 0 = no importance, 10 = great importance</t>
+  </si>
+  <si>
+    <t>(4) 0 = no importance, 10 =great importance</t>
+  </si>
+  <si>
+    <t>(5) 0 = Not important at all, 10 = Extremely important</t>
+  </si>
+  <si>
+    <t>(6) 0 = Strongly opposes, 10 = Strongly supports</t>
+  </si>
+  <si>
+    <t>(7) 0 = Strongly opposes, 7 = Strongly supports</t>
+  </si>
+  <si>
+    <t>(8) 0 = Strongly supports issue on the left, 10 = Strongly supports issue on the right</t>
+  </si>
+  <si>
+    <t>(9) 0 = Strongly supports, 10 = Strongly opposes</t>
+  </si>
+  <si>
+    <t>(10) 0 = Strongly united on the topic, 10 = Strongly divided</t>
+  </si>
+  <si>
+    <t>Left</t>
+  </si>
+  <si>
+    <t>Center</t>
+  </si>
+  <si>
+    <t>Right</t>
+  </si>
+  <si>
+    <t>Populist</t>
+  </si>
+  <si>
+    <t>Position</t>
+  </si>
+  <si>
+    <t>4 sides F-Test</t>
+  </si>
+  <si>
+    <t>East-West F-Test</t>
+  </si>
+  <si>
+    <t xml:space="preserve">salience of anti-establishment and anti-elite rhetoric (5) </t>
+  </si>
+  <si>
+    <t>position on civil liberties vs. law and order (8)</t>
+  </si>
+  <si>
+    <t>salience of reducing political corruption (5)</t>
+  </si>
+  <si>
+    <t>position on deregulation (6)</t>
+  </si>
+  <si>
+    <t>position on state intervention in the economy (9)</t>
+  </si>
+  <si>
+    <t>position towards ethnic minorities (9)</t>
+  </si>
+  <si>
+    <t>position of the party leadership on EU authority over member states’economic and budgetary policies (7)</t>
+  </si>
+  <si>
+    <t>position of the party leadership on EU cohesion or regional policy(e.g. the structural funds) (7)</t>
+  </si>
+  <si>
+    <t>degree of dissent on European integration in 2014 (10)</t>
+  </si>
+  <si>
+    <t>position of the party leadership on EU foreign and security policy (7)</t>
+  </si>
+  <si>
+    <t>overall orientation of the party leadership towards European integration (10)</t>
+  </si>
+  <si>
+    <t>relative salience of European integration in the party’s public stance (3)</t>
+  </si>
+  <si>
+    <t>position of the party in terms of their views on democratic freedoms and rights (2)</t>
+  </si>
+  <si>
+    <t>relative salience of libertarian/traditional issues in the party’s public (8)</t>
+  </si>
+  <si>
+    <t>position on immigration policy (6)</t>
+  </si>
+  <si>
+    <t>position of the party in terms of its ideological stance on economic issues (9)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">relative salience of economic issues in the party’s public stance </t>
+  </si>
+  <si>
+    <t>position of the party in terms of its overall ideological stance (1)</t>
+  </si>
+  <si>
+    <t>position on integration of immigrants and asylum seekers (multicul-turalism vs. assimilation) (3)</t>
+  </si>
+  <si>
+    <t>position towards nationalism (8)</t>
+  </si>
+  <si>
+    <t>position on redistribution of wealth from the rich to the poor (8)</t>
+  </si>
+  <si>
+    <t>position on political decentralization to regions/localities (9)</t>
+  </si>
+  <si>
+    <t>position on role of religious principles in politics (6)</t>
+  </si>
+  <si>
+    <t>position on social lifestyle (e.g. homosexuality) (9)</t>
+  </si>
+  <si>
+    <t>position on improving public services vs. reducing taxes (9)</t>
+  </si>
+  <si>
+    <t>position on urban vs. rural interests (8)</t>
+  </si>
+  <si>
+    <t>5.01</t>
+  </si>
+  <si>
+    <t>4.06</t>
+  </si>
+  <si>
+    <t>3.77</t>
+  </si>
+  <si>
+    <t>7.54</t>
+  </si>
+  <si>
+    <t>4.19</t>
+  </si>
+  <si>
+    <t>3.2</t>
+  </si>
+  <si>
+    <t>3.68</t>
+  </si>
+  <si>
+    <t>7.12</t>
+  </si>
+  <si>
+    <t>4.73</t>
+  </si>
+  <si>
+    <t>6.29</t>
+  </si>
+  <si>
+    <t>7.07</t>
+  </si>
+  <si>
+    <t>3.24</t>
+  </si>
+  <si>
+    <t>4.34</t>
+  </si>
+  <si>
+    <t>6.27</t>
+  </si>
+  <si>
+    <t>7.04</t>
+  </si>
+  <si>
+    <t>4.94</t>
+  </si>
+  <si>
+    <t>4.49</t>
+  </si>
+  <si>
+    <t>4.88</t>
+  </si>
+  <si>
+    <t>5.81</t>
+  </si>
+  <si>
+    <t>4.15</t>
+  </si>
+  <si>
+    <t>4.2</t>
+  </si>
+  <si>
+    <t>4.38</t>
+  </si>
+  <si>
+    <t>5.17</t>
+  </si>
+  <si>
+    <t>2.91</t>
+  </si>
+  <si>
+    <t>5.11</t>
+  </si>
+  <si>
+    <t>6.7</t>
+  </si>
+  <si>
+    <t>4.47</t>
+  </si>
+  <si>
+    <t>2.61</t>
+  </si>
+  <si>
+    <t>6.72</t>
+  </si>
+  <si>
+    <t>4.68</t>
+  </si>
+  <si>
+    <t>2.72</t>
+  </si>
+  <si>
+    <t>4.9</t>
+  </si>
+  <si>
+    <t>6.59</t>
+  </si>
+  <si>
+    <t>4.41</t>
+  </si>
+  <si>
+    <t>4.92</t>
+  </si>
+  <si>
+    <t>6.46</t>
+  </si>
+  <si>
+    <t>4.36</t>
+  </si>
+  <si>
+    <t>2.58</t>
+  </si>
+  <si>
+    <t>4.39</t>
+  </si>
+  <si>
+    <t>5.99</t>
+  </si>
+  <si>
+    <t>2.62</t>
+  </si>
+  <si>
+    <t>3.89</t>
+  </si>
+  <si>
+    <t>5.83</t>
+  </si>
+  <si>
+    <t>6.87</t>
+  </si>
+  <si>
+    <t>3.33</t>
+  </si>
+  <si>
+    <t>4.31</t>
+  </si>
+  <si>
+    <t>4.1</t>
+  </si>
+  <si>
+    <t>2.46</t>
+  </si>
+  <si>
+    <t>3.78</t>
+  </si>
+  <si>
+    <t>4.6</t>
+  </si>
+  <si>
+    <t>4.11</t>
+  </si>
+  <si>
+    <t>2.42</t>
+  </si>
+  <si>
+    <t>5.57</t>
+  </si>
+  <si>
+    <t>5.92</t>
+  </si>
+  <si>
+    <t>5.47</t>
+  </si>
+  <si>
+    <t>5.62</t>
+  </si>
+  <si>
+    <t>5.86</t>
+  </si>
+  <si>
+    <t>5.38</t>
+  </si>
+  <si>
+    <t>4.66</t>
+  </si>
+  <si>
+    <t>2.76</t>
+  </si>
+  <si>
+    <t>2.38</t>
+  </si>
+  <si>
+    <t>2.32</t>
+  </si>
+  <si>
+    <t>2.52</t>
+  </si>
+  <si>
+    <t>2.6</t>
+  </si>
+  <si>
+    <t>2.27</t>
+  </si>
+  <si>
+    <t>2.66</t>
+  </si>
+  <si>
+    <t>2.73</t>
+  </si>
+  <si>
+    <t>4.4</t>
+  </si>
+  <si>
+    <t>5.35</t>
+  </si>
+  <si>
+    <t>5.16</t>
+  </si>
+  <si>
+    <t>4.29</t>
+  </si>
+  <si>
+    <t>4.84</t>
+  </si>
+  <si>
+    <t>2.74</t>
+  </si>
+  <si>
+    <t>position of the party leadership on the internal market (i.e.  freemovement of goods. services. capital and labor) (7)</t>
+  </si>
+  <si>
+    <t>5.55</t>
+  </si>
+  <si>
+    <t>5.63</t>
+  </si>
+  <si>
+    <t>3.46</t>
+  </si>
+  <si>
+    <t>5.8</t>
+  </si>
+  <si>
+    <t>5.69</t>
+  </si>
+  <si>
+    <t>3.87</t>
+  </si>
+  <si>
+    <t>4.89</t>
+  </si>
+  <si>
+    <t>5.23</t>
+  </si>
+  <si>
+    <t>3.15</t>
+  </si>
+  <si>
+    <t>5.21</t>
+  </si>
+  <si>
+    <t>5.71</t>
+  </si>
+  <si>
+    <t>5.33</t>
+  </si>
+  <si>
+    <t>3.38</t>
+  </si>
+  <si>
+    <t>5.72</t>
+  </si>
+  <si>
+    <t>5.58</t>
+  </si>
+  <si>
+    <t>6.1</t>
+  </si>
+  <si>
+    <t>5.9</t>
+  </si>
+  <si>
+    <t>5.73</t>
+  </si>
+  <si>
+    <t>6.05</t>
+  </si>
+  <si>
+    <t>6.18</t>
+  </si>
+  <si>
+    <t>6.04</t>
+  </si>
+  <si>
+    <t>2.78</t>
+  </si>
+  <si>
+    <t>4.99</t>
+  </si>
+  <si>
+    <t>6.17</t>
+  </si>
+  <si>
+    <t>7.1</t>
+  </si>
+  <si>
+    <t>2.85</t>
+  </si>
+  <si>
+    <t>6.89</t>
+  </si>
+  <si>
+    <t>5.94</t>
+  </si>
+  <si>
+    <t>5.43</t>
+  </si>
+  <si>
+    <t>5.79</t>
+  </si>
+  <si>
+    <t>6.41</t>
+  </si>
+  <si>
+    <t>6.06</t>
+  </si>
+  <si>
+    <t>5.78</t>
+  </si>
+  <si>
+    <t>6.31</t>
+  </si>
+  <si>
+    <t>6.9</t>
+  </si>
+  <si>
+    <t>6.36</t>
+  </si>
+  <si>
+    <t>7.3</t>
+  </si>
+  <si>
+    <t>3.26</t>
+  </si>
+  <si>
+    <t>7.65</t>
+  </si>
+  <si>
+    <t>5.06</t>
+  </si>
+  <si>
+    <t>6.91</t>
+  </si>
+  <si>
+    <t>4.82</t>
+  </si>
+  <si>
+    <t>6.88</t>
+  </si>
+  <si>
+    <t>5.09</t>
+  </si>
+  <si>
+    <t>7.05</t>
+  </si>
+  <si>
+    <t>6.93</t>
+  </si>
+  <si>
+    <t>6.55</t>
+  </si>
+  <si>
+    <t>6.45</t>
+  </si>
+  <si>
+    <t>6.12</t>
+  </si>
+  <si>
+    <t>6.62</t>
+  </si>
+  <si>
+    <t>5.76</t>
+  </si>
+  <si>
+    <t>2.69</t>
+  </si>
+  <si>
+    <t>5.1</t>
+  </si>
+  <si>
+    <t>7.24</t>
+  </si>
+  <si>
+    <t>6.44</t>
+  </si>
+  <si>
+    <t>2.57</t>
+  </si>
+  <si>
+    <t>7.19</t>
+  </si>
+  <si>
+    <t>6.58</t>
+  </si>
+  <si>
+    <t>3.29</t>
+  </si>
+  <si>
+    <t>4.81</t>
+  </si>
+  <si>
+    <t>6.47</t>
+  </si>
+  <si>
+    <t>7.31</t>
+  </si>
+  <si>
+    <t>4.85</t>
+  </si>
+  <si>
+    <t>6.69</t>
+  </si>
+  <si>
+    <t>7.51</t>
+  </si>
+  <si>
+    <t>3.45</t>
+  </si>
+  <si>
+    <t>6.24</t>
+  </si>
+  <si>
+    <t>7.55</t>
+  </si>
+  <si>
+    <t>3.18</t>
+  </si>
+  <si>
+    <t>4.28</t>
+  </si>
+  <si>
+    <t>6.03</t>
+  </si>
+  <si>
+    <t>7.34</t>
+  </si>
+  <si>
+    <t>2.51</t>
+  </si>
+  <si>
+    <t>4.71</t>
+  </si>
+  <si>
+    <t>6.43</t>
+  </si>
+  <si>
+    <t>4.37</t>
+  </si>
+  <si>
+    <t>2.33</t>
+  </si>
+  <si>
+    <t>6.19</t>
+  </si>
+  <si>
+    <t>4.53</t>
+  </si>
+  <si>
+    <t>4.17</t>
+  </si>
+  <si>
+    <t>4.24</t>
+  </si>
+  <si>
+    <t>4.67</t>
+  </si>
+  <si>
+    <t>5.32</t>
+  </si>
+  <si>
+    <t>2.01</t>
+  </si>
+  <si>
+    <t>5.59</t>
+  </si>
+  <si>
+    <t>1.97</t>
+  </si>
+  <si>
+    <t>4.51</t>
+  </si>
+  <si>
+    <t>5.37</t>
+  </si>
+  <si>
+    <t>5.3</t>
+  </si>
+  <si>
+    <t>2.36</t>
+  </si>
+  <si>
+    <t>4.46</t>
+  </si>
+  <si>
+    <t>5.77</t>
+  </si>
+  <si>
+    <t>6.74</t>
+  </si>
+  <si>
+    <t>2.18</t>
+  </si>
+  <si>
+    <t>4.08</t>
+  </si>
+  <si>
+    <t>6.32</t>
+  </si>
+  <si>
+    <t>4.86</t>
+  </si>
+  <si>
+    <t>6.57</t>
+  </si>
+  <si>
+    <t>4.79</t>
+  </si>
+  <si>
+    <t>3.66</t>
+  </si>
+  <si>
+    <t>5.18</t>
+  </si>
+  <si>
+    <t>3.67</t>
+  </si>
+  <si>
+    <t>4.95</t>
+  </si>
+  <si>
+    <t>5.36</t>
+  </si>
+  <si>
+    <t>RC1</t>
+  </si>
+  <si>
+    <t>RC2</t>
+  </si>
+  <si>
+    <t>RC4</t>
+  </si>
+  <si>
+    <t>RC3</t>
+  </si>
+  <si>
+    <t>RC5</t>
+  </si>
+  <si>
+    <t/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+  </numFmts>
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -550,6 +1292,45 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="238"/>
@@ -576,7 +1357,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -701,11 +1482,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -749,9 +1545,46 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normál" xfId="0" builtinId="0"/>
+    <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -764,6 +1597,527 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Utente di Microsoft Office" refreshedDate="44351.688164236111" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="26" xr:uid="{F1DCFC9B-4A82-7340-BB0F-4CDC9F9A3E0F}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:C27" sheet="Scale"/>
+  </cacheSource>
+  <cacheFields count="3">
+    <cacheField name="antielite_salience" numFmtId="0">
+      <sharedItems count="26">
+        <s v="civlib_laworder"/>
+        <s v="corrupt_salience"/>
+        <s v="deregulation"/>
+        <s v="econ_interven"/>
+        <s v="ethnic_minorities"/>
+        <s v="eu_budgets"/>
+        <s v="eu_cohesion"/>
+        <s v="eu_dissent"/>
+        <s v="eu_foreign"/>
+        <s v="eu_intmark"/>
+        <s v="eu_position"/>
+        <s v="eu_salience"/>
+        <s v="galtan"/>
+        <s v="galtan_salience"/>
+        <s v="immigrate_policy"/>
+        <s v="lrecon"/>
+        <s v="lrecon_salience"/>
+        <s v="lrgen"/>
+        <s v="multiculturalism"/>
+        <s v="nationalism"/>
+        <s v="redistribution"/>
+        <s v="regions"/>
+        <s v="religious_principle"/>
+        <s v="sociallifestyle"/>
+        <s v="spendvtax"/>
+        <s v="urban_rural"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="salience of anti-establishment and anti-elite rhetoric" numFmtId="0">
+      <sharedItems count="26">
+        <s v="position on civil liberties vs. law and order"/>
+        <s v="salience of reducing political corruption"/>
+        <s v="position on deregulation of markets"/>
+        <s v="position on state intervention in the economy"/>
+        <s v="position towards ethnic minority rights"/>
+        <s v="position of the party leadership in2019on EU authority over economic andbudgetary policy"/>
+        <s v="position of the party leadership in2019on EU cohesion or regional policy(e.g. the structural funds)"/>
+        <s v="degree of dissent on European integration in 2019"/>
+        <s v="position of the party leadership in2019on EU foreign and security policy"/>
+        <s v="position of the party leadership in2019on the internal market (i.e.  freemovement of goods, services, capital and labor)"/>
+        <s v="overall orientation of the party leadership towards European integration in2019"/>
+        <s v="relative salience of European integration in the party’s public stance in2019"/>
+        <s v="position of the party in2019in terms of their views on social and cultural values"/>
+        <s v="relative salience of libertarian/traditional issues in the party’s publicstance in2019"/>
+        <s v="position on immigration policy"/>
+        <s v="position of the party in2019in terms of its ideological stance on economic issues."/>
+        <s v="relative salience of economic issues in the party’s public stance in2019"/>
+        <s v="position of the party in2019in terms of its overall ideological stance"/>
+        <s v="position on integration of immigrants and asylum seekers (multicul-turalism vs. assimilation)"/>
+        <s v="position towards cosmopolitanism vs. Nationalism"/>
+        <s v="position on redistribution of wealth from the rich to the poor. Poor"/>
+        <s v="position on political decentralization to regions/localities"/>
+        <s v="position on role of religious principles in politics"/>
+        <s v="position on social lifestyle (e.g. rights for homosexuals, gender equality)"/>
+        <s v="position on improving public services vs. reducing taxes during 2019"/>
+        <s v="position on urban/rural interests"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="0 = Not important at all, 10 = Extremely important" numFmtId="0">
+      <sharedItems count="10">
+        <s v="0 = Strongly supports issue on the left, 10 = Strongly supports issue on the right"/>
+        <s v="0 = Not important at all, 10 = Extremely important"/>
+        <s v="0 = Strongly opposes, 10 = Strongly supports"/>
+        <s v="0 = Strongly supports, 10 = Strongly opposes"/>
+        <s v="0 = Strongly opposes, 7 = Strongly supports"/>
+        <s v="0 = Strongly united on the topic, 10 = Strongly divided"/>
+        <s v="0 = no importance, 10 = great importance"/>
+        <s v="0 = libertarian/postmaterialist, 10 = traditional/authoritarian"/>
+        <s v="0 = no importance, 10 =great importance"/>
+        <s v="0 = extreme left, 10 = extreme right"/>
+      </sharedItems>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="26">
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="4"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="5"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="6"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="7"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="8"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="9"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="10"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="11"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <x v="13"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="14"/>
+    <x v="14"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="9"/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="16"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="17"/>
+    <x v="17"/>
+    <x v="9"/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="18"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="19"/>
+    <x v="19"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="20"/>
+    <x v="20"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="21"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="22"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="23"/>
+    <x v="23"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="24"/>
+    <x v="24"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="25"/>
+    <x v="25"/>
+    <x v="0"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{97064748-C843-B240-8D03-889FA52E7A6E}" name="Tabella pivot3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valori" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:AB41" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="3">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="27">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="24"/>
+        <item x="25"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="27">
+        <item x="7"/>
+        <item x="10"/>
+        <item x="15"/>
+        <item x="17"/>
+        <item x="12"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="14"/>
+        <item x="24"/>
+        <item x="18"/>
+        <item x="21"/>
+        <item x="20"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="3"/>
+        <item x="25"/>
+        <item x="19"/>
+        <item x="4"/>
+        <item x="16"/>
+        <item x="11"/>
+        <item x="13"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="11">
+        <item x="9"/>
+        <item x="7"/>
+        <item x="6"/>
+        <item x="8"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="4"/>
+        <item x="0"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="2">
+    <field x="2"/>
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="37">
+    <i>
+      <x/>
+    </i>
+    <i r="1">
+      <x v="15"/>
+    </i>
+    <i r="1">
+      <x v="17"/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="13"/>
+    </i>
+    <i r="1">
+      <x v="16"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="22"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i r="1">
+      <x v="8"/>
+    </i>
+    <i r="1">
+      <x v="9"/>
+    </i>
+    <i r="1">
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="19"/>
+    </i>
+    <i r="1">
+      <x v="20"/>
+    </i>
+    <i r="1">
+      <x v="25"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x v="18"/>
+    </i>
+    <i r="1">
+      <x v="21"/>
+    </i>
+    <i r="1">
+      <x v="23"/>
+    </i>
+    <i r="1">
+      <x v="24"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i r="1">
+      <x v="7"/>
+    </i>
+    <i r="1">
+      <x v="10"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="1"/>
+  </colFields>
+  <colItems count="27">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i>
+      <x v="16"/>
+    </i>
+    <i>
+      <x v="17"/>
+    </i>
+    <i>
+      <x v="18"/>
+    </i>
+    <i>
+      <x v="19"/>
+    </i>
+    <i>
+      <x v="20"/>
+    </i>
+    <i>
+      <x v="21"/>
+    </i>
+    <i>
+      <x v="22"/>
+    </i>
+    <i>
+      <x v="23"/>
+    </i>
+    <i>
+      <x v="24"/>
+    </i>
+    <i>
+      <x v="25"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1028,25 +2382,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G65"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A5" workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="48.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="96.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="44.85546875" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" style="1"/>
+    <col min="1" max="1" width="48.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="96.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="44.83203125" customWidth="1"/>
+    <col min="7" max="7" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
         <v>164</v>
       </c>
@@ -1069,7 +2423,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>165</v>
       </c>
@@ -1088,7 +2442,7 @@
       </c>
       <c r="G2" s="4"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>165</v>
       </c>
@@ -1103,7 +2457,7 @@
       <c r="F3" s="6"/>
       <c r="G3" s="7"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>165</v>
       </c>
@@ -1118,7 +2472,7 @@
       </c>
       <c r="G4" s="7"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>165</v>
       </c>
@@ -1137,7 +2491,7 @@
       </c>
       <c r="G5" s="7"/>
     </row>
-    <row r="6" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>165</v>
       </c>
@@ -1156,7 +2510,7 @@
       </c>
       <c r="G6" s="10"/>
     </row>
-    <row r="7" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="34" t="s">
         <v>75</v>
       </c>
@@ -1179,7 +2533,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>75</v>
       </c>
@@ -1198,7 +2552,7 @@
       </c>
       <c r="G8" s="7"/>
     </row>
-    <row r="9" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="37" t="s">
         <v>75</v>
       </c>
@@ -1221,7 +2575,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="37" t="s">
         <v>75</v>
       </c>
@@ -1244,7 +2598,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="11" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="37" t="s">
         <v>75</v>
       </c>
@@ -1261,7 +2615,7 @@
       <c r="F11" s="29"/>
       <c r="G11" s="30"/>
     </row>
-    <row r="12" spans="1:7" s="27" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" s="27" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="42" t="s">
         <v>75</v>
       </c>
@@ -1278,7 +2632,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="34" t="s">
         <v>76</v>
       </c>
@@ -1301,7 +2655,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="37" t="s">
         <v>76</v>
       </c>
@@ -1324,7 +2678,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="15" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="37" t="s">
         <v>76</v>
       </c>
@@ -1347,7 +2701,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="16" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="37" t="s">
         <v>76</v>
       </c>
@@ -1370,7 +2724,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="17" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="37" t="s">
         <v>76</v>
       </c>
@@ -1387,7 +2741,7 @@
       <c r="F17" s="29"/>
       <c r="G17" s="30"/>
     </row>
-    <row r="18" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="37" t="s">
         <v>76</v>
       </c>
@@ -1404,7 +2758,7 @@
       <c r="F18" s="29"/>
       <c r="G18" s="30"/>
     </row>
-    <row r="19" spans="1:7" s="27" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" s="27" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="42" t="s">
         <v>76</v>
       </c>
@@ -1421,7 +2775,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="20" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="34" t="s">
         <v>83</v>
       </c>
@@ -1444,7 +2798,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>83</v>
       </c>
@@ -1459,7 +2813,7 @@
       <c r="F21" s="11"/>
       <c r="G21" s="12"/>
     </row>
-    <row r="22" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="37" t="s">
         <v>83</v>
       </c>
@@ -1482,7 +2836,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="23" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="37" t="s">
         <v>83</v>
       </c>
@@ -1505,7 +2859,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>83</v>
       </c>
@@ -1524,7 +2878,7 @@
       </c>
       <c r="G24" s="7"/>
     </row>
-    <row r="25" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="37" t="s">
         <v>83</v>
       </c>
@@ -1547,7 +2901,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="26" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="37" t="s">
         <v>83</v>
       </c>
@@ -1570,7 +2924,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>83</v>
       </c>
@@ -1589,7 +2943,7 @@
       </c>
       <c r="G27" s="7"/>
     </row>
-    <row r="28" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="37" t="s">
         <v>83</v>
       </c>
@@ -1606,7 +2960,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="29" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="37" t="s">
         <v>83</v>
       </c>
@@ -1623,7 +2977,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="30" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="37" t="s">
         <v>83</v>
       </c>
@@ -1640,7 +2994,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="31" spans="1:7" s="27" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" s="27" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="42" t="s">
         <v>83</v>
       </c>
@@ -1657,7 +3011,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="32" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="34" t="s">
         <v>91</v>
       </c>
@@ -1680,7 +3034,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="33" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="37" t="s">
         <v>91</v>
       </c>
@@ -1703,7 +3057,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="34" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="37" t="s">
         <v>91</v>
       </c>
@@ -1726,7 +3080,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="35" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="37" t="s">
         <v>91</v>
       </c>
@@ -1749,7 +3103,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="36" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="37" t="s">
         <v>91</v>
       </c>
@@ -1772,7 +3126,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="37" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37" s="37" t="s">
         <v>91</v>
       </c>
@@ -1795,7 +3149,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="38" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="37" t="s">
         <v>91</v>
       </c>
@@ -1818,7 +3172,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="39" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" s="37" t="s">
         <v>91</v>
       </c>
@@ -1841,7 +3195,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="40" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="37" t="s">
         <v>91</v>
       </c>
@@ -1864,7 +3218,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="41" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" s="37" t="s">
         <v>91</v>
       </c>
@@ -1887,7 +3241,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" s="5" t="s">
         <v>91</v>
       </c>
@@ -1910,7 +3264,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="43" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" s="37" t="s">
         <v>91</v>
       </c>
@@ -1933,7 +3287,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="44" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A44" s="37" t="s">
         <v>91</v>
       </c>
@@ -1956,7 +3310,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="45" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A45" s="37" t="s">
         <v>91</v>
       </c>
@@ -1979,7 +3333,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" s="5" t="s">
         <v>91</v>
       </c>
@@ -1996,7 +3350,7 @@
       <c r="F46" s="11"/>
       <c r="G46" s="12"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" s="5" t="s">
         <v>91</v>
       </c>
@@ -2013,7 +3367,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="48" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A48" s="37" t="s">
         <v>91</v>
       </c>
@@ -2030,7 +3384,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="49" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A49" s="37" t="s">
         <v>91</v>
       </c>
@@ -2047,7 +3401,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="50" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A50" s="37" t="s">
         <v>91</v>
       </c>
@@ -2064,7 +3418,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="51" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A51" s="37" t="s">
         <v>91</v>
       </c>
@@ -2081,7 +3435,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="52" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A52" s="37" t="s">
         <v>91</v>
       </c>
@@ -2098,7 +3452,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="53" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A53" s="37" t="s">
         <v>91</v>
       </c>
@@ -2115,7 +3469,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" s="5" t="s">
         <v>91</v>
       </c>
@@ -2132,7 +3486,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="55" spans="1:7" s="27" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" s="27" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A55" s="42" t="s">
         <v>91</v>
       </c>
@@ -2149,7 +3503,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="56" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A56" s="34" t="s">
         <v>151</v>
       </c>
@@ -2172,7 +3526,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="57" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A57" s="37" t="s">
         <v>151</v>
       </c>
@@ -2195,7 +3549,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="58" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A58" s="37" t="s">
         <v>151</v>
       </c>
@@ -2212,7 +3566,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="59" spans="1:7" s="27" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" s="27" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A59" s="42" t="s">
         <v>151</v>
       </c>
@@ -2229,7 +3583,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="60" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A60" s="34" t="s">
         <v>154</v>
       </c>
@@ -2246,7 +3600,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="61" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A61" s="37" t="s">
         <v>154</v>
       </c>
@@ -2263,7 +3617,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="62" spans="1:7" s="27" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7" s="27" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A62" s="42" t="s">
         <v>154</v>
       </c>
@@ -2280,7 +3634,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
         <v>110</v>
       </c>
@@ -2295,7 +3649,7 @@
       <c r="F63" s="3"/>
       <c r="G63" s="4"/>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" s="5" t="s">
         <v>110</v>
       </c>
@@ -2310,7 +3664,7 @@
       <c r="F64" s="6"/>
       <c r="G64" s="7"/>
     </row>
-    <row r="65" spans="1:7" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:7" s="23" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A65" s="20" t="s">
         <v>110</v>
       </c>
@@ -2332,22 +3686,22 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="48.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="96.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="48.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="96.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.83203125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
         <v>164</v>
       </c>
@@ -2361,7 +3715,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="34" t="s">
         <v>75</v>
       </c>
@@ -2375,7 +3729,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="37" t="s">
         <v>75</v>
       </c>
@@ -2389,7 +3743,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="37" t="s">
         <v>75</v>
       </c>
@@ -2403,7 +3757,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="5" spans="1:4" s="27" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" s="27" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="37" t="s">
         <v>75</v>
       </c>
@@ -2417,7 +3771,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="6" spans="1:4" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="34" t="s">
         <v>76</v>
       </c>
@@ -2431,7 +3785,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="7" spans="1:4" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="37" t="s">
         <v>76</v>
       </c>
@@ -2445,7 +3799,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="8" spans="1:4" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="37" t="s">
         <v>76</v>
       </c>
@@ -2459,7 +3813,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="1:4" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="37" t="s">
         <v>76</v>
       </c>
@@ -2473,7 +3827,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="10" spans="1:4" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="37" t="s">
         <v>76</v>
       </c>
@@ -2487,7 +3841,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="11" spans="1:4" s="27" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" s="27" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="37" t="s">
         <v>76</v>
       </c>
@@ -2501,7 +3855,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="12" spans="1:4" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="34" t="s">
         <v>83</v>
       </c>
@@ -2515,7 +3869,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="13" spans="1:4" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="37" t="s">
         <v>83</v>
       </c>
@@ -2529,7 +3883,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="14" spans="1:4" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="37" t="s">
         <v>83</v>
       </c>
@@ -2543,7 +3897,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="15" spans="1:4" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="37" t="s">
         <v>83</v>
       </c>
@@ -2557,7 +3911,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="16" spans="1:4" s="27" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" s="27" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="37" t="s">
         <v>83</v>
       </c>
@@ -2571,7 +3925,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="17" spans="1:4" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="34" t="s">
         <v>91</v>
       </c>
@@ -2585,7 +3939,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="18" spans="1:4" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="37" t="s">
         <v>91</v>
       </c>
@@ -2599,7 +3953,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="19" spans="1:4" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="37" t="s">
         <v>91</v>
       </c>
@@ -2613,7 +3967,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="20" spans="1:4" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="37" t="s">
         <v>91</v>
       </c>
@@ -2627,7 +3981,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="21" spans="1:4" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="37" t="s">
         <v>91</v>
       </c>
@@ -2641,7 +3995,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="22" spans="1:4" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="37" t="s">
         <v>91</v>
       </c>
@@ -2655,7 +4009,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="23" spans="1:4" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="37" t="s">
         <v>91</v>
       </c>
@@ -2669,7 +4023,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="24" spans="1:4" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="37" t="s">
         <v>91</v>
       </c>
@@ -2683,7 +4037,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="25" spans="1:4" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="37" t="s">
         <v>91</v>
       </c>
@@ -2697,7 +4051,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="26" spans="1:4" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="37" t="s">
         <v>91</v>
       </c>
@@ -2711,7 +4065,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="27" spans="1:4" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="37" t="s">
         <v>91</v>
       </c>
@@ -2725,7 +4079,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="28" spans="1:4" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="37" t="s">
         <v>91</v>
       </c>
@@ -2739,7 +4093,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="29" spans="1:4" s="27" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" s="27" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="37" t="s">
         <v>91</v>
       </c>
@@ -2753,7 +4107,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="30" spans="1:4" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="34" t="s">
         <v>151</v>
       </c>
@@ -2767,7 +4121,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="31" spans="1:4" s="27" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" s="27" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="42" t="s">
         <v>151</v>
       </c>
@@ -2788,22 +4142,22 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A5" workbookViewId="0">
       <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="48.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="44.85546875" customWidth="1"/>
-    <col min="4" max="4" width="8.85546875" style="1"/>
+    <col min="1" max="1" width="48.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="44.83203125" customWidth="1"/>
+    <col min="4" max="4" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
         <v>164</v>
       </c>
@@ -2817,7 +4171,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="34" t="s">
         <v>75</v>
       </c>
@@ -2831,7 +4185,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="37" t="s">
         <v>75</v>
       </c>
@@ -2845,7 +4199,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="37" t="s">
         <v>75</v>
       </c>
@@ -2859,7 +4213,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="5" spans="1:4" s="27" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" s="27" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="42" t="s">
         <v>75</v>
       </c>
@@ -2873,7 +4227,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="6" spans="1:4" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="34" t="s">
         <v>76</v>
       </c>
@@ -2887,7 +4241,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="7" spans="1:4" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="37" t="s">
         <v>76</v>
       </c>
@@ -2901,7 +4255,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="8" spans="1:4" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="37" t="s">
         <v>76</v>
       </c>
@@ -2915,7 +4269,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="1:4" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="37" t="s">
         <v>76</v>
       </c>
@@ -2929,7 +4283,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="10" spans="1:4" s="27" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" s="27" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="42" t="s">
         <v>76</v>
       </c>
@@ -2943,7 +4297,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="11" spans="1:4" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="34" t="s">
         <v>83</v>
       </c>
@@ -2957,7 +4311,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="12" spans="1:4" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="37" t="s">
         <v>83</v>
       </c>
@@ -2971,7 +4325,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="13" spans="1:4" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="37" t="s">
         <v>83</v>
       </c>
@@ -2985,7 +4339,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="14" spans="1:4" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="37" t="s">
         <v>83</v>
       </c>
@@ -2999,7 +4353,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="15" spans="1:4" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="37" t="s">
         <v>83</v>
       </c>
@@ -3013,7 +4367,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="16" spans="1:4" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="37" t="s">
         <v>83</v>
       </c>
@@ -3027,7 +4381,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="17" spans="1:4" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="37" t="s">
         <v>83</v>
       </c>
@@ -3041,7 +4395,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="18" spans="1:4" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="37" t="s">
         <v>83</v>
       </c>
@@ -3055,7 +4409,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="19" spans="1:4" s="27" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" s="27" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="42" t="s">
         <v>83</v>
       </c>
@@ -3069,7 +4423,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="20" spans="1:4" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="34" t="s">
         <v>91</v>
       </c>
@@ -3083,7 +4437,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="21" spans="1:4" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="37" t="s">
         <v>91</v>
       </c>
@@ -3097,7 +4451,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="22" spans="1:4" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="37" t="s">
         <v>91</v>
       </c>
@@ -3111,7 +4465,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="23" spans="1:4" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="37" t="s">
         <v>91</v>
       </c>
@@ -3125,7 +4479,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="24" spans="1:4" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="37" t="s">
         <v>91</v>
       </c>
@@ -3139,7 +4493,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="25" spans="1:4" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="37" t="s">
         <v>91</v>
       </c>
@@ -3153,7 +4507,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="26" spans="1:4" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="37" t="s">
         <v>91</v>
       </c>
@@ -3167,7 +4521,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="27" spans="1:4" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="37" t="s">
         <v>91</v>
       </c>
@@ -3181,7 +4535,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="28" spans="1:4" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="37" t="s">
         <v>91</v>
       </c>
@@ -3195,7 +4549,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="29" spans="1:4" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="37" t="s">
         <v>91</v>
       </c>
@@ -3209,7 +4563,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="30" spans="1:4" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="37" t="s">
         <v>91</v>
       </c>
@@ -3223,7 +4577,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="31" spans="1:4" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="37" t="s">
         <v>91</v>
       </c>
@@ -3237,7 +4591,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="32" spans="1:4" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="37" t="s">
         <v>91</v>
       </c>
@@ -3251,7 +4605,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="33" spans="1:4" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="37" t="s">
         <v>91</v>
       </c>
@@ -3265,7 +4619,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="34" spans="1:4" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="37" t="s">
         <v>91</v>
       </c>
@@ -3279,7 +4633,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="35" spans="1:4" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="37" t="s">
         <v>91</v>
       </c>
@@ -3293,7 +4647,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="36" spans="1:4" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="37" t="s">
         <v>91</v>
       </c>
@@ -3307,7 +4661,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="37" spans="1:4" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37" s="37" t="s">
         <v>91</v>
       </c>
@@ -3321,7 +4675,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="38" spans="1:4" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="37" t="s">
         <v>91</v>
       </c>
@@ -3335,7 +4689,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="39" spans="1:4" s="27" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" s="27" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A39" s="42" t="s">
         <v>91</v>
       </c>
@@ -3349,7 +4703,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="40" spans="1:4" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="34" t="s">
         <v>151</v>
       </c>
@@ -3363,7 +4717,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="41" spans="1:4" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" s="37" t="s">
         <v>151</v>
       </c>
@@ -3377,7 +4731,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="42" spans="1:4" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="37" t="s">
         <v>151</v>
       </c>
@@ -3391,7 +4745,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="43" spans="1:4" s="27" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" s="27" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A43" s="42" t="s">
         <v>151</v>
       </c>
@@ -3405,7 +4759,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="44" spans="1:4" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A44" s="34" t="s">
         <v>154</v>
       </c>
@@ -3419,7 +4773,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="45" spans="1:4" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A45" s="37" t="s">
         <v>154</v>
       </c>
@@ -3433,7 +4787,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="46" spans="1:4" s="27" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" s="27" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A46" s="42" t="s">
         <v>154</v>
       </c>
@@ -3454,25 +4808,346 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2895C20C-165D-CF44-B82A-016324F8A268}">
+  <dimension ref="A3:AB41"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="63.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="64" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="64.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="54" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="62.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="72.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="77.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="57.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="94.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="34" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="29" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="25" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="54.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="73.1640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="46.33203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="53.6640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="38.83203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="57" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="37.33203125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="26.83203125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="40.1640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="31.5" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="56" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="60" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="65.33203125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="32.5" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="15.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="B3" s="44" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A4" s="44" t="s">
+        <v>178</v>
+      </c>
+      <c r="B4" t="s">
+        <v>118</v>
+      </c>
+      <c r="C4" t="s">
+        <v>114</v>
+      </c>
+      <c r="D4" t="s">
+        <v>128</v>
+      </c>
+      <c r="E4" t="s">
+        <v>127</v>
+      </c>
+      <c r="F4" t="s">
+        <v>131</v>
+      </c>
+      <c r="G4" t="s">
+        <v>125</v>
+      </c>
+      <c r="H4" t="s">
+        <v>122</v>
+      </c>
+      <c r="I4" t="s">
+        <v>123</v>
+      </c>
+      <c r="J4" t="s">
+        <v>124</v>
+      </c>
+      <c r="K4" t="s">
+        <v>96</v>
+      </c>
+      <c r="L4" t="s">
+        <v>143</v>
+      </c>
+      <c r="M4" t="s">
+        <v>99</v>
+      </c>
+      <c r="N4" t="s">
+        <v>142</v>
+      </c>
+      <c r="O4" t="s">
+        <v>100</v>
+      </c>
+      <c r="P4" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>138</v>
+      </c>
+      <c r="R4" t="s">
+        <v>98</v>
+      </c>
+      <c r="S4" t="s">
+        <v>144</v>
+      </c>
+      <c r="T4" t="s">
+        <v>95</v>
+      </c>
+      <c r="U4" t="s">
+        <v>147</v>
+      </c>
+      <c r="V4" t="s">
+        <v>146</v>
+      </c>
+      <c r="W4" t="s">
+        <v>145</v>
+      </c>
+      <c r="X4" t="s">
+        <v>116</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>115</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>117</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>109</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A5" s="45" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A6" s="46" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A7" s="46" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A8" s="45" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A9" s="46" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A10" s="45" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A11" s="46" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A12" s="45" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A13" s="46" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A14" s="46" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A15" s="45" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A16" s="46" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" s="45" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" s="46" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" s="46" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" s="45" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" s="46" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22" s="46" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23" s="46" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24" s="46" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25" s="46" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26" s="45" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27" s="46" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A28" s="46" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A29" s="46" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A30" s="46" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A31" s="45" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A32" s="46" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33" s="46" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A34" s="46" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A35" s="46" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A36" s="46" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A37" s="46" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A38" s="45" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A39" s="46" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A40" s="46" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A41" s="45" t="s">
+        <v>177</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="48.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="96.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="44.85546875" customWidth="1"/>
-    <col min="7" max="7" width="8.85546875" style="1"/>
+    <col min="1" max="1" width="48.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="96.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="44.83203125" customWidth="1"/>
+    <col min="7" max="7" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
         <v>164</v>
       </c>
@@ -3495,7 +5170,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="34" t="s">
         <v>75</v>
       </c>
@@ -3518,7 +5193,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="37" t="s">
         <v>75</v>
       </c>
@@ -3541,7 +5216,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="27" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="27" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="37" t="s">
         <v>75</v>
       </c>
@@ -3564,7 +5239,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="34" t="s">
         <v>76</v>
       </c>
@@ -3587,11 +5262,11 @@
         <v>70</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="37" t="s">
         <v>76</v>
       </c>
-      <c r="B6" s="37" t="s">
+      <c r="B6" s="55" t="s">
         <v>11</v>
       </c>
       <c r="C6" s="38" t="s">
@@ -3610,11 +5285,11 @@
         <v>70</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="37" t="s">
         <v>76</v>
       </c>
-      <c r="B7" s="37" t="s">
+      <c r="B7" s="55" t="s">
         <v>12</v>
       </c>
       <c r="C7" s="38" t="s">
@@ -3633,11 +5308,11 @@
         <v>70</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="27" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" s="27" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="37" t="s">
         <v>76</v>
       </c>
-      <c r="B8" s="37" t="s">
+      <c r="B8" s="55" t="s">
         <v>14</v>
       </c>
       <c r="C8" s="38" t="s">
@@ -3656,7 +5331,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="34" t="s">
         <v>83</v>
       </c>
@@ -3679,7 +5354,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="37" t="s">
         <v>83</v>
       </c>
@@ -3702,7 +5377,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="11" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="37" t="s">
         <v>83</v>
       </c>
@@ -3725,7 +5400,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="37" t="s">
         <v>83</v>
       </c>
@@ -3748,7 +5423,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="27" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" s="27" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="37" t="s">
         <v>83</v>
       </c>
@@ -3771,7 +5446,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="34" t="s">
         <v>91</v>
       </c>
@@ -3794,7 +5469,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="15" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="37" t="s">
         <v>91</v>
       </c>
@@ -3817,7 +5492,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="16" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="37" t="s">
         <v>91</v>
       </c>
@@ -3840,7 +5515,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="17" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="37" t="s">
         <v>91</v>
       </c>
@@ -3863,7 +5538,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="18" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="37" t="s">
         <v>91</v>
       </c>
@@ -3886,7 +5561,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="19" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="37" t="s">
         <v>91</v>
       </c>
@@ -3909,7 +5584,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="20" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="37" t="s">
         <v>91</v>
       </c>
@@ -3932,11 +5607,11 @@
         <v>71</v>
       </c>
     </row>
-    <row r="21" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="37" t="s">
         <v>91</v>
       </c>
-      <c r="B21" s="37" t="s">
+      <c r="B21" s="55" t="s">
         <v>30</v>
       </c>
       <c r="C21" s="38" t="s">
@@ -3955,7 +5630,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="22" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="37" t="s">
         <v>91</v>
       </c>
@@ -3978,7 +5653,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="23" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="37" t="s">
         <v>91</v>
       </c>
@@ -4001,11 +5676,11 @@
         <v>71</v>
       </c>
     </row>
-    <row r="24" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="37" t="s">
         <v>91</v>
       </c>
-      <c r="B24" s="37" t="s">
+      <c r="B24" s="55" t="s">
         <v>34</v>
       </c>
       <c r="C24" s="38" t="s">
@@ -4024,7 +5699,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="25" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="37" t="s">
         <v>91</v>
       </c>
@@ -4047,7 +5722,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="26" spans="1:7" s="27" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" s="27" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="37" t="s">
         <v>91</v>
       </c>
@@ -4070,7 +5745,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="27" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="34" t="s">
         <v>151</v>
       </c>
@@ -4093,7 +5768,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="28" spans="1:7" s="27" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" s="27" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="42" t="s">
         <v>151</v>
       </c>
@@ -4120,4 +5795,1949 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3228345-A46B-5846-875A-774C6EC63063}">
+  <dimension ref="A1:G26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="74.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C1" t="s">
+        <v>400</v>
+      </c>
+      <c r="D1" t="s">
+        <v>401</v>
+      </c>
+      <c r="E1" t="s">
+        <v>402</v>
+      </c>
+      <c r="F1" t="s">
+        <v>403</v>
+      </c>
+      <c r="G1" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2" s="56">
+        <v>-0.39226882019609799</v>
+      </c>
+      <c r="D2" s="56" t="s">
+        <v>405</v>
+      </c>
+      <c r="E2" s="57">
+        <v>0.86922577108729004</v>
+      </c>
+      <c r="F2" s="56" t="s">
+        <v>405</v>
+      </c>
+      <c r="G2" s="56" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C3" s="56" t="s">
+        <v>405</v>
+      </c>
+      <c r="D3" s="56" t="s">
+        <v>405</v>
+      </c>
+      <c r="E3" s="57" t="s">
+        <v>405</v>
+      </c>
+      <c r="F3" s="57">
+        <v>0.57296086454552497</v>
+      </c>
+      <c r="G3" s="56" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C4" s="56" t="s">
+        <v>405</v>
+      </c>
+      <c r="D4" s="56" t="s">
+        <v>405</v>
+      </c>
+      <c r="E4" s="57" t="s">
+        <v>405</v>
+      </c>
+      <c r="F4" s="56" t="s">
+        <v>405</v>
+      </c>
+      <c r="G4" s="57">
+        <v>0.69323478304474495</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C5" s="56" t="s">
+        <v>405</v>
+      </c>
+      <c r="D5" s="56" t="s">
+        <v>405</v>
+      </c>
+      <c r="E5" s="57">
+        <v>0.81048750708320405</v>
+      </c>
+      <c r="F5" s="56" t="s">
+        <v>405</v>
+      </c>
+      <c r="G5" s="57" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C6" s="56" t="s">
+        <v>405</v>
+      </c>
+      <c r="D6" s="56" t="s">
+        <v>405</v>
+      </c>
+      <c r="E6" s="57">
+        <v>0.84964760927877703</v>
+      </c>
+      <c r="F6" s="56" t="s">
+        <v>405</v>
+      </c>
+      <c r="G6" s="57" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C7" s="56">
+        <v>-0.39733494219721499</v>
+      </c>
+      <c r="D7" s="56" t="s">
+        <v>405</v>
+      </c>
+      <c r="E7" s="57">
+        <v>0.81786230514576297</v>
+      </c>
+      <c r="F7" s="56" t="s">
+        <v>405</v>
+      </c>
+      <c r="G7" s="57" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C8" s="56" t="s">
+        <v>405</v>
+      </c>
+      <c r="D8" s="56" t="s">
+        <v>405</v>
+      </c>
+      <c r="E8" s="57">
+        <v>0.86444434900200795</v>
+      </c>
+      <c r="F8" s="56" t="s">
+        <v>405</v>
+      </c>
+      <c r="G8" s="57" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" t="s">
+        <v>89</v>
+      </c>
+      <c r="C9" s="57">
+        <v>0.90720169300449505</v>
+      </c>
+      <c r="D9" s="56" t="s">
+        <v>405</v>
+      </c>
+      <c r="E9" s="57" t="s">
+        <v>405</v>
+      </c>
+      <c r="F9" s="56" t="s">
+        <v>405</v>
+      </c>
+      <c r="G9" s="57" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>90</v>
+      </c>
+      <c r="C10" s="57" t="s">
+        <v>405</v>
+      </c>
+      <c r="D10" s="56" t="s">
+        <v>405</v>
+      </c>
+      <c r="E10" s="57" t="s">
+        <v>405</v>
+      </c>
+      <c r="F10" s="56" t="s">
+        <v>405</v>
+      </c>
+      <c r="G10" s="57">
+        <v>-0.52585095256235004</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" t="s">
+        <v>85</v>
+      </c>
+      <c r="C11" s="57" t="s">
+        <v>405</v>
+      </c>
+      <c r="D11" s="57">
+        <v>0.93885789974526801</v>
+      </c>
+      <c r="E11" s="57" t="s">
+        <v>405</v>
+      </c>
+      <c r="F11" s="56" t="s">
+        <v>405</v>
+      </c>
+      <c r="G11" s="57" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" t="s">
+        <v>86</v>
+      </c>
+      <c r="C12" s="57" t="s">
+        <v>405</v>
+      </c>
+      <c r="D12" s="57" t="s">
+        <v>405</v>
+      </c>
+      <c r="E12" s="57" t="s">
+        <v>405</v>
+      </c>
+      <c r="F12" s="56" t="s">
+        <v>405</v>
+      </c>
+      <c r="G12" s="57">
+        <v>0.74600472663375095</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>92</v>
+      </c>
+      <c r="C13" s="57" t="s">
+        <v>405</v>
+      </c>
+      <c r="D13" s="57">
+        <v>0.90786347116966903</v>
+      </c>
+      <c r="E13" s="57" t="s">
+        <v>405</v>
+      </c>
+      <c r="F13" s="56" t="s">
+        <v>405</v>
+      </c>
+      <c r="G13" s="56" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" t="s">
+        <v>93</v>
+      </c>
+      <c r="C14" s="57" t="s">
+        <v>405</v>
+      </c>
+      <c r="D14" s="57">
+        <v>0.95401934526326304</v>
+      </c>
+      <c r="E14" s="57" t="s">
+        <v>405</v>
+      </c>
+      <c r="F14" s="56" t="s">
+        <v>405</v>
+      </c>
+      <c r="G14" s="56" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" t="s">
+        <v>94</v>
+      </c>
+      <c r="C15" s="57" t="s">
+        <v>405</v>
+      </c>
+      <c r="D15" s="57">
+        <v>0.93257481626643202</v>
+      </c>
+      <c r="E15" s="57" t="s">
+        <v>405</v>
+      </c>
+      <c r="F15" s="56" t="s">
+        <v>405</v>
+      </c>
+      <c r="G15" s="56" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" t="s">
+        <v>95</v>
+      </c>
+      <c r="C16" s="57" t="s">
+        <v>405</v>
+      </c>
+      <c r="D16" s="57">
+        <v>0.95420934170764304</v>
+      </c>
+      <c r="E16" s="57" t="s">
+        <v>405</v>
+      </c>
+      <c r="F16" s="56" t="s">
+        <v>405</v>
+      </c>
+      <c r="G16" s="56" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" t="s">
+        <v>96</v>
+      </c>
+      <c r="C17" s="57">
+        <v>0.84457535775530301</v>
+      </c>
+      <c r="D17" s="56" t="s">
+        <v>405</v>
+      </c>
+      <c r="E17" s="57" t="s">
+        <v>405</v>
+      </c>
+      <c r="F17" s="56" t="s">
+        <v>405</v>
+      </c>
+      <c r="G17" s="56" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" t="s">
+        <v>97</v>
+      </c>
+      <c r="C18" s="57">
+        <v>0.91141502524854301</v>
+      </c>
+      <c r="D18" s="56" t="s">
+        <v>405</v>
+      </c>
+      <c r="E18" s="57" t="s">
+        <v>405</v>
+      </c>
+      <c r="F18" s="56" t="s">
+        <v>405</v>
+      </c>
+      <c r="G18" s="56" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" t="s">
+        <v>99</v>
+      </c>
+      <c r="C19" s="57">
+        <v>0.82871257968854395</v>
+      </c>
+      <c r="D19" s="56" t="s">
+        <v>405</v>
+      </c>
+      <c r="E19" s="57" t="s">
+        <v>405</v>
+      </c>
+      <c r="F19" s="56" t="s">
+        <v>405</v>
+      </c>
+      <c r="G19" s="56" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20" t="s">
+        <v>100</v>
+      </c>
+      <c r="C20" s="57">
+        <v>0.82962597572007502</v>
+      </c>
+      <c r="D20" s="56" t="s">
+        <v>405</v>
+      </c>
+      <c r="E20" s="57" t="s">
+        <v>405</v>
+      </c>
+      <c r="F20" s="56" t="s">
+        <v>405</v>
+      </c>
+      <c r="G20" s="56" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21" t="s">
+        <v>102</v>
+      </c>
+      <c r="C21" s="57">
+        <v>0.79936896957836201</v>
+      </c>
+      <c r="D21" s="56" t="s">
+        <v>405</v>
+      </c>
+      <c r="E21" s="57" t="s">
+        <v>405</v>
+      </c>
+      <c r="F21" s="56" t="s">
+        <v>405</v>
+      </c>
+      <c r="G21" s="56" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>34</v>
+      </c>
+      <c r="B22" t="s">
+        <v>104</v>
+      </c>
+      <c r="C22" s="57" t="s">
+        <v>405</v>
+      </c>
+      <c r="D22" s="56" t="s">
+        <v>405</v>
+      </c>
+      <c r="E22" s="57">
+        <v>-0.39442413953430899</v>
+      </c>
+      <c r="F22" s="56" t="s">
+        <v>405</v>
+      </c>
+      <c r="G22" s="56" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>36</v>
+      </c>
+      <c r="B23" t="s">
+        <v>106</v>
+      </c>
+      <c r="C23" s="57">
+        <v>0.74850209646579802</v>
+      </c>
+      <c r="D23" s="56" t="s">
+        <v>405</v>
+      </c>
+      <c r="E23" s="57" t="s">
+        <v>405</v>
+      </c>
+      <c r="F23" s="56" t="s">
+        <v>405</v>
+      </c>
+      <c r="G23" s="56" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>37</v>
+      </c>
+      <c r="B24" t="s">
+        <v>107</v>
+      </c>
+      <c r="C24" s="57">
+        <v>0.87550861262811197</v>
+      </c>
+      <c r="D24" s="56" t="s">
+        <v>405</v>
+      </c>
+      <c r="E24" s="57" t="s">
+        <v>405</v>
+      </c>
+      <c r="F24" s="56" t="s">
+        <v>405</v>
+      </c>
+      <c r="G24" s="56" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>38</v>
+      </c>
+      <c r="B25" t="s">
+        <v>108</v>
+      </c>
+      <c r="C25" s="56" t="s">
+        <v>405</v>
+      </c>
+      <c r="D25" s="56" t="s">
+        <v>405</v>
+      </c>
+      <c r="E25" s="57">
+        <v>-0.70127677801029797</v>
+      </c>
+      <c r="F25" s="56">
+        <v>0.44679616448015502</v>
+      </c>
+      <c r="G25" s="56" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>39</v>
+      </c>
+      <c r="B26" t="s">
+        <v>109</v>
+      </c>
+      <c r="C26" s="56" t="s">
+        <v>405</v>
+      </c>
+      <c r="D26" s="56" t="s">
+        <v>405</v>
+      </c>
+      <c r="E26" s="56" t="s">
+        <v>405</v>
+      </c>
+      <c r="F26" s="57">
+        <v>0.89039613076579704</v>
+      </c>
+      <c r="G26" s="56" t="s">
+        <v>405</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:M26" xr:uid="{161D602F-E773-F243-8ECA-B1D997ECA2B7}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6485DD85-42C1-D642-A185-8227E04D2078}">
+  <dimension ref="A1:T38"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="54" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C1" t="s">
+        <v>166</v>
+      </c>
+      <c r="H1" s="48"/>
+      <c r="I1" s="52">
+        <v>2014</v>
+      </c>
+      <c r="J1" s="53"/>
+      <c r="K1" s="53"/>
+      <c r="L1" s="54"/>
+      <c r="M1" s="50"/>
+      <c r="N1" s="50"/>
+      <c r="O1" s="53">
+        <v>2019</v>
+      </c>
+      <c r="P1" s="53"/>
+      <c r="Q1" s="53"/>
+      <c r="R1" s="54"/>
+      <c r="S1" s="50"/>
+      <c r="T1" s="50"/>
+    </row>
+    <row r="2" spans="1:20" ht="28" x14ac:dyDescent="0.2">
+      <c r="A2" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C2" t="s">
+        <v>167</v>
+      </c>
+      <c r="H2" s="49" t="s">
+        <v>193</v>
+      </c>
+      <c r="I2" s="49" t="s">
+        <v>189</v>
+      </c>
+      <c r="J2" s="49" t="s">
+        <v>190</v>
+      </c>
+      <c r="K2" s="49" t="s">
+        <v>191</v>
+      </c>
+      <c r="L2" s="49" t="s">
+        <v>192</v>
+      </c>
+      <c r="M2" s="50" t="s">
+        <v>194</v>
+      </c>
+      <c r="N2" s="50" t="s">
+        <v>195</v>
+      </c>
+      <c r="O2" s="49" t="s">
+        <v>189</v>
+      </c>
+      <c r="P2" s="49" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q2" s="49" t="s">
+        <v>191</v>
+      </c>
+      <c r="R2" s="49" t="s">
+        <v>192</v>
+      </c>
+      <c r="S2" s="50" t="s">
+        <v>194</v>
+      </c>
+      <c r="T2" s="50" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C3" t="s">
+        <v>166</v>
+      </c>
+      <c r="H3" s="51" t="s">
+        <v>196</v>
+      </c>
+      <c r="I3" s="49" t="s">
+        <v>222</v>
+      </c>
+      <c r="J3" s="49" t="s">
+        <v>223</v>
+      </c>
+      <c r="K3" s="49" t="s">
+        <v>224</v>
+      </c>
+      <c r="L3" s="49" t="s">
+        <v>225</v>
+      </c>
+      <c r="M3" s="50"/>
+      <c r="N3" s="50"/>
+      <c r="O3" s="49" t="s">
+        <v>226</v>
+      </c>
+      <c r="P3" s="49" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q3" s="49" t="s">
+        <v>228</v>
+      </c>
+      <c r="R3" s="49" t="s">
+        <v>229</v>
+      </c>
+      <c r="S3" s="50"/>
+      <c r="T3" s="50"/>
+    </row>
+    <row r="4" spans="1:20" ht="16" x14ac:dyDescent="0.2">
+      <c r="A4" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C4" t="s">
+        <v>168</v>
+      </c>
+      <c r="H4" s="51" t="s">
+        <v>197</v>
+      </c>
+      <c r="I4" s="49">
+        <v>3</v>
+      </c>
+      <c r="J4" s="49" t="s">
+        <v>230</v>
+      </c>
+      <c r="K4" s="49" t="s">
+        <v>231</v>
+      </c>
+      <c r="L4" s="49" t="s">
+        <v>232</v>
+      </c>
+      <c r="M4" s="50"/>
+      <c r="N4" s="50"/>
+      <c r="O4" s="49" t="s">
+        <v>233</v>
+      </c>
+      <c r="P4" s="49" t="s">
+        <v>234</v>
+      </c>
+      <c r="Q4" s="49" t="s">
+        <v>235</v>
+      </c>
+      <c r="R4" s="49" t="s">
+        <v>236</v>
+      </c>
+      <c r="S4" s="50"/>
+      <c r="T4" s="50"/>
+    </row>
+    <row r="5" spans="1:20" ht="16" x14ac:dyDescent="0.2">
+      <c r="A5" s="43" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" t="s">
+        <v>95</v>
+      </c>
+      <c r="C5" t="s">
+        <v>169</v>
+      </c>
+      <c r="H5" s="51" t="s">
+        <v>198</v>
+      </c>
+      <c r="I5" s="49" t="s">
+        <v>237</v>
+      </c>
+      <c r="J5" s="49" t="s">
+        <v>238</v>
+      </c>
+      <c r="K5" s="49" t="s">
+        <v>239</v>
+      </c>
+      <c r="L5" s="49" t="s">
+        <v>240</v>
+      </c>
+      <c r="M5" s="50"/>
+      <c r="N5" s="50"/>
+      <c r="O5" s="49" t="s">
+        <v>241</v>
+      </c>
+      <c r="P5" s="49" t="s">
+        <v>242</v>
+      </c>
+      <c r="Q5" s="49" t="s">
+        <v>243</v>
+      </c>
+      <c r="R5" s="49" t="s">
+        <v>244</v>
+      </c>
+      <c r="S5" s="50"/>
+      <c r="T5" s="50"/>
+    </row>
+    <row r="6" spans="1:20" ht="16" x14ac:dyDescent="0.2">
+      <c r="A6" s="43" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" t="s">
+        <v>145</v>
+      </c>
+      <c r="C6" t="s">
+        <v>169</v>
+      </c>
+      <c r="H6" s="51" t="s">
+        <v>199</v>
+      </c>
+      <c r="I6" s="49" t="s">
+        <v>245</v>
+      </c>
+      <c r="J6" s="49" t="s">
+        <v>246</v>
+      </c>
+      <c r="K6" s="49" t="s">
+        <v>247</v>
+      </c>
+      <c r="L6" s="49" t="s">
+        <v>248</v>
+      </c>
+      <c r="M6" s="50"/>
+      <c r="N6" s="50"/>
+      <c r="O6" s="49" t="s">
+        <v>249</v>
+      </c>
+      <c r="P6" s="49" t="s">
+        <v>244</v>
+      </c>
+      <c r="Q6" s="49" t="s">
+        <v>250</v>
+      </c>
+      <c r="R6" s="49" t="s">
+        <v>251</v>
+      </c>
+      <c r="S6" s="50"/>
+      <c r="T6" s="50"/>
+    </row>
+    <row r="7" spans="1:20" ht="16" x14ac:dyDescent="0.2">
+      <c r="A7" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
+        <v>125</v>
+      </c>
+      <c r="C7" t="s">
+        <v>170</v>
+      </c>
+      <c r="H7" s="51" t="s">
+        <v>200</v>
+      </c>
+      <c r="I7" s="49" t="s">
+        <v>252</v>
+      </c>
+      <c r="J7" s="49" t="s">
+        <v>253</v>
+      </c>
+      <c r="K7" s="49" t="s">
+        <v>254</v>
+      </c>
+      <c r="L7" s="49" t="s">
+        <v>255</v>
+      </c>
+      <c r="M7" s="50"/>
+      <c r="N7" s="50"/>
+      <c r="O7" s="49" t="s">
+        <v>249</v>
+      </c>
+      <c r="P7" s="49" t="s">
+        <v>256</v>
+      </c>
+      <c r="Q7" s="49" t="s">
+        <v>257</v>
+      </c>
+      <c r="R7" s="49" t="s">
+        <v>258</v>
+      </c>
+      <c r="S7" s="50"/>
+      <c r="T7" s="50"/>
+    </row>
+    <row r="8" spans="1:20" ht="16" x14ac:dyDescent="0.2">
+      <c r="A8" s="43" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" t="s">
+        <v>122</v>
+      </c>
+      <c r="C8" t="s">
+        <v>170</v>
+      </c>
+      <c r="H8" s="51" t="s">
+        <v>201</v>
+      </c>
+      <c r="I8" s="49" t="s">
+        <v>259</v>
+      </c>
+      <c r="J8" s="49" t="s">
+        <v>260</v>
+      </c>
+      <c r="K8" s="49" t="s">
+        <v>261</v>
+      </c>
+      <c r="L8" s="49" t="s">
+        <v>232</v>
+      </c>
+      <c r="M8" s="50"/>
+      <c r="N8" s="50"/>
+      <c r="O8" s="49" t="s">
+        <v>262</v>
+      </c>
+      <c r="P8" s="49" t="s">
+        <v>263</v>
+      </c>
+      <c r="Q8" s="49" t="s">
+        <v>264</v>
+      </c>
+      <c r="R8" s="49" t="s">
+        <v>265</v>
+      </c>
+      <c r="S8" s="50"/>
+      <c r="T8" s="50"/>
+    </row>
+    <row r="9" spans="1:20" ht="16" x14ac:dyDescent="0.2">
+      <c r="A9" s="43" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>118</v>
+      </c>
+      <c r="C9" t="s">
+        <v>171</v>
+      </c>
+      <c r="H9" s="51" t="s">
+        <v>202</v>
+      </c>
+      <c r="I9" s="49" t="s">
+        <v>266</v>
+      </c>
+      <c r="J9" s="49" t="s">
+        <v>267</v>
+      </c>
+      <c r="K9" s="49" t="s">
+        <v>268</v>
+      </c>
+      <c r="L9" s="49" t="s">
+        <v>269</v>
+      </c>
+      <c r="M9" s="50"/>
+      <c r="N9" s="50"/>
+      <c r="O9" s="49" t="s">
+        <v>270</v>
+      </c>
+      <c r="P9" s="49" t="s">
+        <v>271</v>
+      </c>
+      <c r="Q9" s="49" t="s">
+        <v>272</v>
+      </c>
+      <c r="R9" s="49" t="s">
+        <v>273</v>
+      </c>
+      <c r="S9" s="50"/>
+      <c r="T9" s="50"/>
+    </row>
+    <row r="10" spans="1:20" ht="16" x14ac:dyDescent="0.2">
+      <c r="A10" s="43" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" t="s">
+        <v>123</v>
+      </c>
+      <c r="C10" t="s">
+        <v>170</v>
+      </c>
+      <c r="H10" s="51" t="s">
+        <v>203</v>
+      </c>
+      <c r="I10" s="49" t="s">
+        <v>274</v>
+      </c>
+      <c r="J10" s="49" t="s">
+        <v>275</v>
+      </c>
+      <c r="K10" s="49" t="s">
+        <v>276</v>
+      </c>
+      <c r="L10" s="49" t="s">
+        <v>248</v>
+      </c>
+      <c r="M10" s="50"/>
+      <c r="N10" s="50"/>
+      <c r="O10" s="49" t="s">
+        <v>277</v>
+      </c>
+      <c r="P10" s="49" t="s">
+        <v>278</v>
+      </c>
+      <c r="Q10" s="49" t="s">
+        <v>279</v>
+      </c>
+      <c r="R10" s="49" t="s">
+        <v>280</v>
+      </c>
+      <c r="S10" s="50"/>
+      <c r="T10" s="50"/>
+    </row>
+    <row r="11" spans="1:20" ht="16" x14ac:dyDescent="0.2">
+      <c r="A11" s="43" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>124</v>
+      </c>
+      <c r="C11" t="s">
+        <v>170</v>
+      </c>
+      <c r="H11" s="51" t="s">
+        <v>204</v>
+      </c>
+      <c r="I11" s="49" t="s">
+        <v>281</v>
+      </c>
+      <c r="J11" s="49" t="s">
+        <v>282</v>
+      </c>
+      <c r="K11" s="49" t="s">
+        <v>283</v>
+      </c>
+      <c r="L11" s="49" t="s">
+        <v>284</v>
+      </c>
+      <c r="M11" s="50"/>
+      <c r="N11" s="50"/>
+      <c r="O11" s="49" t="s">
+        <v>285</v>
+      </c>
+      <c r="P11" s="49" t="s">
+        <v>286</v>
+      </c>
+      <c r="Q11" s="49" t="s">
+        <v>287</v>
+      </c>
+      <c r="R11" s="49" t="s">
+        <v>288</v>
+      </c>
+      <c r="S11" s="50"/>
+      <c r="T11" s="50"/>
+    </row>
+    <row r="12" spans="1:20" ht="16" x14ac:dyDescent="0.2">
+      <c r="A12" s="43" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" t="s">
+        <v>114</v>
+      </c>
+      <c r="C12" t="s">
+        <v>171</v>
+      </c>
+      <c r="H12" s="51" t="s">
+        <v>205</v>
+      </c>
+      <c r="I12" s="49" t="s">
+        <v>289</v>
+      </c>
+      <c r="J12" s="49" t="s">
+        <v>290</v>
+      </c>
+      <c r="K12" s="49" t="s">
+        <v>291</v>
+      </c>
+      <c r="L12" s="49" t="s">
+        <v>266</v>
+      </c>
+      <c r="M12" s="50"/>
+      <c r="N12" s="50"/>
+      <c r="O12" s="49" t="s">
+        <v>292</v>
+      </c>
+      <c r="P12" s="49" t="s">
+        <v>293</v>
+      </c>
+      <c r="Q12" s="49" t="s">
+        <v>226</v>
+      </c>
+      <c r="R12" s="49" t="s">
+        <v>294</v>
+      </c>
+      <c r="S12" s="50"/>
+      <c r="T12" s="50"/>
+    </row>
+    <row r="13" spans="1:20" ht="16" x14ac:dyDescent="0.2">
+      <c r="A13" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" t="s">
+        <v>115</v>
+      </c>
+      <c r="C13" t="s">
+        <v>172</v>
+      </c>
+      <c r="H13" s="51" t="s">
+        <v>295</v>
+      </c>
+      <c r="I13" s="49" t="s">
+        <v>248</v>
+      </c>
+      <c r="J13" s="49" t="s">
+        <v>296</v>
+      </c>
+      <c r="K13" s="49" t="s">
+        <v>297</v>
+      </c>
+      <c r="L13" s="49" t="s">
+        <v>298</v>
+      </c>
+      <c r="M13" s="50"/>
+      <c r="N13" s="50"/>
+      <c r="O13" s="49" t="s">
+        <v>237</v>
+      </c>
+      <c r="P13" s="49" t="s">
+        <v>299</v>
+      </c>
+      <c r="Q13" s="49" t="s">
+        <v>300</v>
+      </c>
+      <c r="R13" s="49" t="s">
+        <v>301</v>
+      </c>
+      <c r="S13" s="50"/>
+      <c r="T13" s="50"/>
+    </row>
+    <row r="14" spans="1:20" ht="16" x14ac:dyDescent="0.2">
+      <c r="A14" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" t="s">
+        <v>131</v>
+      </c>
+      <c r="C14" t="s">
+        <v>173</v>
+      </c>
+      <c r="H14" s="51" t="s">
+        <v>206</v>
+      </c>
+      <c r="I14" s="49" t="s">
+        <v>302</v>
+      </c>
+      <c r="J14" s="49" t="s">
+        <v>296</v>
+      </c>
+      <c r="K14" s="49" t="s">
+        <v>303</v>
+      </c>
+      <c r="L14" s="49" t="s">
+        <v>304</v>
+      </c>
+      <c r="M14" s="50"/>
+      <c r="N14" s="50"/>
+      <c r="O14" s="49" t="s">
+        <v>305</v>
+      </c>
+      <c r="P14" s="49" t="s">
+        <v>306</v>
+      </c>
+      <c r="Q14" s="49" t="s">
+        <v>307</v>
+      </c>
+      <c r="R14" s="49" t="s">
+        <v>308</v>
+      </c>
+      <c r="S14" s="50"/>
+      <c r="T14" s="50"/>
+    </row>
+    <row r="15" spans="1:20" ht="16" x14ac:dyDescent="0.2">
+      <c r="A15" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" t="s">
+        <v>117</v>
+      </c>
+      <c r="C15" t="s">
+        <v>174</v>
+      </c>
+      <c r="H15" s="51" t="s">
+        <v>207</v>
+      </c>
+      <c r="I15" s="49" t="s">
+        <v>309</v>
+      </c>
+      <c r="J15" s="49" t="s">
+        <v>310</v>
+      </c>
+      <c r="K15" s="49" t="s">
+        <v>311</v>
+      </c>
+      <c r="L15" s="49" t="s">
+        <v>312</v>
+      </c>
+      <c r="M15" s="50"/>
+      <c r="N15" s="50"/>
+      <c r="O15" s="49" t="s">
+        <v>313</v>
+      </c>
+      <c r="P15" s="49" t="s">
+        <v>314</v>
+      </c>
+      <c r="Q15" s="49" t="s">
+        <v>315</v>
+      </c>
+      <c r="R15" s="49" t="s">
+        <v>316</v>
+      </c>
+      <c r="S15" s="50"/>
+      <c r="T15" s="50"/>
+    </row>
+    <row r="16" spans="1:20" ht="16" x14ac:dyDescent="0.2">
+      <c r="A16" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" t="s">
+        <v>99</v>
+      </c>
+      <c r="C16" t="s">
+        <v>170</v>
+      </c>
+      <c r="H16" s="51" t="s">
+        <v>208</v>
+      </c>
+      <c r="I16" s="49" t="s">
+        <v>317</v>
+      </c>
+      <c r="J16" s="49" t="s">
+        <v>318</v>
+      </c>
+      <c r="K16" s="49" t="s">
+        <v>319</v>
+      </c>
+      <c r="L16" s="49" t="s">
+        <v>320</v>
+      </c>
+      <c r="M16" s="50"/>
+      <c r="N16" s="50"/>
+      <c r="O16" s="49" t="s">
+        <v>321</v>
+      </c>
+      <c r="P16" s="49" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q16" s="49" t="s">
+        <v>319</v>
+      </c>
+      <c r="R16" s="49" t="s">
+        <v>322</v>
+      </c>
+      <c r="S16" s="50"/>
+      <c r="T16" s="50"/>
+    </row>
+    <row r="17" spans="1:20" ht="16" x14ac:dyDescent="0.2">
+      <c r="A17" s="43" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" t="s">
+        <v>128</v>
+      </c>
+      <c r="C17" t="s">
+        <v>175</v>
+      </c>
+      <c r="H17" s="51" t="s">
+        <v>209</v>
+      </c>
+      <c r="I17" s="49" t="s">
+        <v>323</v>
+      </c>
+      <c r="J17" s="49" t="s">
+        <v>324</v>
+      </c>
+      <c r="K17" s="49" t="s">
+        <v>325</v>
+      </c>
+      <c r="L17" s="49" t="s">
+        <v>326</v>
+      </c>
+      <c r="M17" s="50"/>
+      <c r="N17" s="50"/>
+      <c r="O17" s="49" t="s">
+        <v>327</v>
+      </c>
+      <c r="P17" s="49" t="s">
+        <v>328</v>
+      </c>
+      <c r="Q17" s="49" t="s">
+        <v>329</v>
+      </c>
+      <c r="R17" s="49" t="s">
+        <v>330</v>
+      </c>
+      <c r="S17" s="50"/>
+      <c r="T17" s="50"/>
+    </row>
+    <row r="18" spans="1:20" ht="16" x14ac:dyDescent="0.2">
+      <c r="A18" s="43" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" t="s">
+        <v>116</v>
+      </c>
+      <c r="C18" t="s">
+        <v>174</v>
+      </c>
+      <c r="H18" s="51" t="s">
+        <v>210</v>
+      </c>
+      <c r="I18" s="49" t="s">
+        <v>304</v>
+      </c>
+      <c r="J18" s="49" t="s">
+        <v>293</v>
+      </c>
+      <c r="K18" s="49" t="s">
+        <v>331</v>
+      </c>
+      <c r="L18" s="49" t="s">
+        <v>332</v>
+      </c>
+      <c r="M18" s="50"/>
+      <c r="N18" s="50"/>
+      <c r="O18" s="49" t="s">
+        <v>333</v>
+      </c>
+      <c r="P18" s="49" t="s">
+        <v>253</v>
+      </c>
+      <c r="Q18" s="49" t="s">
+        <v>250</v>
+      </c>
+      <c r="R18" s="49" t="s">
+        <v>334</v>
+      </c>
+      <c r="S18" s="50"/>
+      <c r="T18" s="50"/>
+    </row>
+    <row r="19" spans="1:20" ht="16" x14ac:dyDescent="0.2">
+      <c r="A19" s="43" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" t="s">
+        <v>127</v>
+      </c>
+      <c r="C19" t="s">
+        <v>175</v>
+      </c>
+      <c r="H19" s="51" t="s">
+        <v>211</v>
+      </c>
+      <c r="I19" s="49" t="s">
+        <v>252</v>
+      </c>
+      <c r="J19" s="49" t="s">
+        <v>335</v>
+      </c>
+      <c r="K19" s="49" t="s">
+        <v>336</v>
+      </c>
+      <c r="L19" s="49" t="s">
+        <v>337</v>
+      </c>
+      <c r="M19" s="50"/>
+      <c r="N19" s="50"/>
+      <c r="O19" s="49" t="s">
+        <v>294</v>
+      </c>
+      <c r="P19" s="49" t="s">
+        <v>303</v>
+      </c>
+      <c r="Q19" s="49" t="s">
+        <v>338</v>
+      </c>
+      <c r="R19" s="49" t="s">
+        <v>339</v>
+      </c>
+      <c r="S19" s="50"/>
+      <c r="T19" s="50"/>
+    </row>
+    <row r="20" spans="1:20" ht="16" x14ac:dyDescent="0.2">
+      <c r="A20" s="43" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20" t="s">
+        <v>100</v>
+      </c>
+      <c r="C20" t="s">
+        <v>169</v>
+      </c>
+      <c r="H20" s="51" t="s">
+        <v>212</v>
+      </c>
+      <c r="I20" s="49" t="s">
+        <v>340</v>
+      </c>
+      <c r="J20" s="49" t="s">
+        <v>341</v>
+      </c>
+      <c r="K20" s="49" t="s">
+        <v>229</v>
+      </c>
+      <c r="L20" s="49" t="s">
+        <v>342</v>
+      </c>
+      <c r="M20" s="50"/>
+      <c r="N20" s="50"/>
+      <c r="O20" s="49" t="s">
+        <v>343</v>
+      </c>
+      <c r="P20" s="49" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q20" s="49" t="s">
+        <v>345</v>
+      </c>
+      <c r="R20" s="49" t="s">
+        <v>346</v>
+      </c>
+      <c r="S20" s="50"/>
+      <c r="T20" s="50"/>
+    </row>
+    <row r="21" spans="1:20" ht="16" x14ac:dyDescent="0.2">
+      <c r="A21" s="43" t="s">
+        <v>37</v>
+      </c>
+      <c r="B21" t="s">
+        <v>146</v>
+      </c>
+      <c r="C21" t="s">
+        <v>167</v>
+      </c>
+      <c r="H21" s="51" t="s">
+        <v>213</v>
+      </c>
+      <c r="I21" s="49" t="s">
+        <v>347</v>
+      </c>
+      <c r="J21" s="49" t="s">
+        <v>348</v>
+      </c>
+      <c r="K21" s="49" t="s">
+        <v>349</v>
+      </c>
+      <c r="L21" s="49" t="s">
+        <v>350</v>
+      </c>
+      <c r="M21" s="50"/>
+      <c r="N21" s="50"/>
+      <c r="O21" s="49" t="s">
+        <v>351</v>
+      </c>
+      <c r="P21" s="49" t="s">
+        <v>348</v>
+      </c>
+      <c r="Q21" s="49" t="s">
+        <v>352</v>
+      </c>
+      <c r="R21" s="49" t="s">
+        <v>353</v>
+      </c>
+      <c r="S21" s="50"/>
+      <c r="T21" s="50"/>
+    </row>
+    <row r="22" spans="1:20" ht="16" x14ac:dyDescent="0.2">
+      <c r="A22" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" t="s">
+        <v>138</v>
+      </c>
+      <c r="C22" t="s">
+        <v>167</v>
+      </c>
+      <c r="H22" s="51" t="s">
+        <v>214</v>
+      </c>
+      <c r="I22" s="49" t="s">
+        <v>354</v>
+      </c>
+      <c r="J22" s="49" t="s">
+        <v>355</v>
+      </c>
+      <c r="K22" s="49" t="s">
+        <v>356</v>
+      </c>
+      <c r="L22" s="49" t="s">
+        <v>357</v>
+      </c>
+      <c r="M22" s="50"/>
+      <c r="N22" s="50"/>
+      <c r="O22" s="49" t="s">
+        <v>233</v>
+      </c>
+      <c r="P22" s="49" t="s">
+        <v>358</v>
+      </c>
+      <c r="Q22" s="49" t="s">
+        <v>359</v>
+      </c>
+      <c r="R22" s="49" t="s">
+        <v>360</v>
+      </c>
+      <c r="S22" s="50"/>
+      <c r="T22" s="50"/>
+    </row>
+    <row r="23" spans="1:20" ht="16" x14ac:dyDescent="0.2">
+      <c r="A23" s="43" t="s">
+        <v>34</v>
+      </c>
+      <c r="B23" t="s">
+        <v>104</v>
+      </c>
+      <c r="C23" t="s">
+        <v>169</v>
+      </c>
+      <c r="H23" s="51" t="s">
+        <v>215</v>
+      </c>
+      <c r="I23" s="49" t="s">
+        <v>361</v>
+      </c>
+      <c r="J23" s="49" t="s">
+        <v>318</v>
+      </c>
+      <c r="K23" s="49" t="s">
+        <v>362</v>
+      </c>
+      <c r="L23" s="49" t="s">
+        <v>363</v>
+      </c>
+      <c r="M23" s="50"/>
+      <c r="N23" s="50"/>
+      <c r="O23" s="49" t="s">
+        <v>364</v>
+      </c>
+      <c r="P23" s="49" t="s">
+        <v>365</v>
+      </c>
+      <c r="Q23" s="49" t="s">
+        <v>366</v>
+      </c>
+      <c r="R23" s="49" t="s">
+        <v>367</v>
+      </c>
+      <c r="S23" s="50"/>
+      <c r="T23" s="50"/>
+    </row>
+    <row r="24" spans="1:20" ht="16" x14ac:dyDescent="0.2">
+      <c r="A24" s="43" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24" t="s">
+        <v>98</v>
+      </c>
+      <c r="C24" t="s">
+        <v>168</v>
+      </c>
+      <c r="H24" s="51" t="s">
+        <v>216</v>
+      </c>
+      <c r="I24" s="49" t="s">
+        <v>368</v>
+      </c>
+      <c r="J24" s="49" t="s">
+        <v>369</v>
+      </c>
+      <c r="K24" s="49" t="s">
+        <v>370</v>
+      </c>
+      <c r="L24" s="49" t="s">
+        <v>371</v>
+      </c>
+      <c r="M24" s="50"/>
+      <c r="N24" s="50"/>
+      <c r="O24" s="49" t="s">
+        <v>372</v>
+      </c>
+      <c r="P24" s="49" t="s">
+        <v>280</v>
+      </c>
+      <c r="Q24" s="49" t="s">
+        <v>373</v>
+      </c>
+      <c r="R24" s="49" t="s">
+        <v>374</v>
+      </c>
+      <c r="S24" s="50"/>
+      <c r="T24" s="50"/>
+    </row>
+    <row r="25" spans="1:20" ht="16" x14ac:dyDescent="0.2">
+      <c r="A25" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25" t="s">
+        <v>144</v>
+      </c>
+      <c r="C25" t="s">
+        <v>169</v>
+      </c>
+      <c r="H25" s="51" t="s">
+        <v>217</v>
+      </c>
+      <c r="I25" s="49" t="s">
+        <v>375</v>
+      </c>
+      <c r="J25" s="49" t="s">
+        <v>376</v>
+      </c>
+      <c r="K25" s="49" t="s">
+        <v>230</v>
+      </c>
+      <c r="L25" s="49" t="s">
+        <v>253</v>
+      </c>
+      <c r="M25" s="50"/>
+      <c r="N25" s="50"/>
+      <c r="O25" s="49" t="s">
+        <v>375</v>
+      </c>
+      <c r="P25" s="49" t="s">
+        <v>223</v>
+      </c>
+      <c r="Q25" s="49" t="s">
+        <v>377</v>
+      </c>
+      <c r="R25" s="49" t="s">
+        <v>378</v>
+      </c>
+      <c r="S25" s="50"/>
+      <c r="T25" s="50"/>
+    </row>
+    <row r="26" spans="1:20" ht="16" x14ac:dyDescent="0.2">
+      <c r="A26" s="43" t="s">
+        <v>23</v>
+      </c>
+      <c r="B26" t="s">
+        <v>142</v>
+      </c>
+      <c r="C26" t="s">
+        <v>169</v>
+      </c>
+      <c r="H26" s="51" t="s">
+        <v>218</v>
+      </c>
+      <c r="I26" s="49" t="s">
+        <v>379</v>
+      </c>
+      <c r="J26" s="49" t="s">
+        <v>369</v>
+      </c>
+      <c r="K26" s="49" t="s">
+        <v>380</v>
+      </c>
+      <c r="L26" s="49" t="s">
+        <v>296</v>
+      </c>
+      <c r="M26" s="50"/>
+      <c r="N26" s="50"/>
+      <c r="O26" s="49" t="s">
+        <v>381</v>
+      </c>
+      <c r="P26" s="49" t="s">
+        <v>382</v>
+      </c>
+      <c r="Q26" s="49" t="s">
+        <v>383</v>
+      </c>
+      <c r="R26" s="49" t="s">
+        <v>384</v>
+      </c>
+      <c r="S26" s="50"/>
+      <c r="T26" s="50"/>
+    </row>
+    <row r="27" spans="1:20" ht="16" x14ac:dyDescent="0.2">
+      <c r="A27" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="B27" t="s">
+        <v>147</v>
+      </c>
+      <c r="C27" t="s">
+        <v>167</v>
+      </c>
+      <c r="H27" s="51" t="s">
+        <v>219</v>
+      </c>
+      <c r="I27" s="49" t="s">
+        <v>385</v>
+      </c>
+      <c r="J27" s="49" t="s">
+        <v>386</v>
+      </c>
+      <c r="K27" s="49" t="s">
+        <v>387</v>
+      </c>
+      <c r="L27" s="49" t="s">
+        <v>388</v>
+      </c>
+      <c r="M27" s="50"/>
+      <c r="N27" s="50"/>
+      <c r="O27" s="49" t="s">
+        <v>389</v>
+      </c>
+      <c r="P27" s="49" t="s">
+        <v>390</v>
+      </c>
+      <c r="Q27" s="49" t="s">
+        <v>279</v>
+      </c>
+      <c r="R27" s="49" t="s">
+        <v>391</v>
+      </c>
+      <c r="S27" s="50"/>
+      <c r="T27" s="50"/>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="H28" s="51" t="s">
+        <v>220</v>
+      </c>
+      <c r="I28" s="49" t="s">
+        <v>245</v>
+      </c>
+      <c r="J28" s="49" t="s">
+        <v>392</v>
+      </c>
+      <c r="K28" s="49" t="s">
+        <v>393</v>
+      </c>
+      <c r="L28" s="49" t="s">
+        <v>253</v>
+      </c>
+      <c r="M28" s="50"/>
+      <c r="N28" s="50"/>
+      <c r="O28" s="49" t="s">
+        <v>372</v>
+      </c>
+      <c r="P28" s="49" t="s">
+        <v>394</v>
+      </c>
+      <c r="Q28" s="49" t="s">
+        <v>350</v>
+      </c>
+      <c r="R28" s="49" t="s">
+        <v>256</v>
+      </c>
+      <c r="S28" s="50"/>
+      <c r="T28" s="50"/>
+    </row>
+    <row r="29" spans="1:20" ht="16" x14ac:dyDescent="0.2">
+      <c r="A29" s="47" t="s">
+        <v>179</v>
+      </c>
+      <c r="B29" t="s">
+        <v>175</v>
+      </c>
+      <c r="C29" t="str">
+        <f>LOWER(B29)</f>
+        <v>0 = extreme left, 10 = extreme right</v>
+      </c>
+      <c r="H29" s="51" t="s">
+        <v>221</v>
+      </c>
+      <c r="I29" s="49" t="s">
+        <v>395</v>
+      </c>
+      <c r="J29" s="49" t="s">
+        <v>335</v>
+      </c>
+      <c r="K29" s="49" t="s">
+        <v>396</v>
+      </c>
+      <c r="L29" s="49" t="s">
+        <v>274</v>
+      </c>
+      <c r="M29" s="50"/>
+      <c r="N29" s="50"/>
+      <c r="O29" s="49" t="s">
+        <v>397</v>
+      </c>
+      <c r="P29" s="49" t="s">
+        <v>293</v>
+      </c>
+      <c r="Q29" s="49" t="s">
+        <v>398</v>
+      </c>
+      <c r="R29" s="49" t="s">
+        <v>399</v>
+      </c>
+      <c r="S29" s="50"/>
+      <c r="T29" s="50"/>
+    </row>
+    <row r="30" spans="1:20" ht="16" x14ac:dyDescent="0.2">
+      <c r="A30" s="47" t="s">
+        <v>180</v>
+      </c>
+      <c r="B30" t="s">
+        <v>173</v>
+      </c>
+      <c r="C30" t="str">
+        <f t="shared" ref="C30:C38" si="0">LOWER(B30)</f>
+        <v>0 = libertarian/postmaterialist, 10 = traditional/authoritarian</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" ht="16" x14ac:dyDescent="0.2">
+      <c r="A31" s="47" t="s">
+        <v>181</v>
+      </c>
+      <c r="B31" t="s">
+        <v>174</v>
+      </c>
+      <c r="C31" t="str">
+        <f t="shared" si="0"/>
+        <v>0 = no importance, 10 =great importance</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" ht="16" x14ac:dyDescent="0.2">
+      <c r="A32" s="47" t="s">
+        <v>182</v>
+      </c>
+      <c r="B32" t="s">
+        <v>174</v>
+      </c>
+      <c r="C32" t="str">
+        <f t="shared" si="0"/>
+        <v>0 = no importance, 10 =great importance</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A33" s="47" t="s">
+        <v>183</v>
+      </c>
+      <c r="B33" t="s">
+        <v>166</v>
+      </c>
+      <c r="C33" t="str">
+        <f t="shared" si="0"/>
+        <v>0 = not important at all, 10 = extremely important</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A34" s="47" t="s">
+        <v>184</v>
+      </c>
+      <c r="B34" t="s">
+        <v>168</v>
+      </c>
+      <c r="C34" t="str">
+        <f t="shared" si="0"/>
+        <v>0 = strongly opposes, 10 = strongly supports</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A35" s="47" t="s">
+        <v>185</v>
+      </c>
+      <c r="B35" t="s">
+        <v>170</v>
+      </c>
+      <c r="C35" t="str">
+        <f t="shared" si="0"/>
+        <v>0 = strongly opposes, 7 = strongly supports</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A36" s="47" t="s">
+        <v>186</v>
+      </c>
+      <c r="B36" t="s">
+        <v>167</v>
+      </c>
+      <c r="C36" t="str">
+        <f t="shared" si="0"/>
+        <v>0 = strongly supports issue on the left, 10 = strongly supports issue on the right</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A37" s="47" t="s">
+        <v>187</v>
+      </c>
+      <c r="B37" t="s">
+        <v>169</v>
+      </c>
+      <c r="C37" t="str">
+        <f t="shared" si="0"/>
+        <v>0 = strongly supports, 10 = strongly opposes</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A38" s="47" t="s">
+        <v>188</v>
+      </c>
+      <c r="B38" t="s">
+        <v>171</v>
+      </c>
+      <c r="C38" t="str">
+        <f t="shared" si="0"/>
+        <v>0 = strongly united on the topic, 10 = strongly divided</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="I1:L1"/>
+    <mergeCell ref="O1:R1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>